--- a/data/Israel/june2021.xlsx
+++ b/data/Israel/june2021.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
   <si>
     <t xml:space="preserve">new hospitalizations</t>
   </si>
@@ -50,6 +50,9 @@
     <t xml:space="preserve">vacc</t>
   </si>
   <si>
+    <t xml:space="preserve">Mon</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tue</t>
   </si>
   <si>
@@ -66,9 +69,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mon</t>
   </si>
 </sst>
 </file>
@@ -330,12 +330,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N185"/>
+  <dimension ref="A1:N179"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="O39" activeCellId="0" sqref="O39"/>
+      <selection pane="bottomLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -425,7 +425,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>44348</v>
+        <v>44354</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -437,7 +437,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>0</v>
@@ -455,33 +455,24 @@
         <v>0</v>
       </c>
       <c r="K3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>44349</v>
+        <v>44355</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>0</v>
@@ -490,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="3" t="n">
         <v>0</v>
@@ -499,33 +490,24 @@
         <v>0</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>44350</v>
+        <v>44356</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>0</v>
@@ -546,30 +528,30 @@
         <v>0</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>44351</v>
+        <v>44357</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>0</v>
@@ -590,24 +572,24 @@
         <v>0</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M6" s="4" t="n">
         <v>0</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>44352</v>
+        <v>44358</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>0</v>
@@ -634,27 +616,27 @@
         <v>0</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>44353</v>
+        <v>44359</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
@@ -675,33 +657,33 @@
         <v>0</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M8" s="4" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>44354</v>
+        <v>44360</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>0</v>
@@ -716,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="5" t="n">
         <v>0</v>
@@ -728,24 +710,24 @@
         <v>0</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>44355</v>
+        <v>44361</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>0</v>
@@ -754,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="3" t="n">
         <v>0</v>
@@ -766,30 +748,30 @@
         <v>0</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>44356</v>
+        <v>44362</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>0</v>
@@ -810,30 +792,30 @@
         <v>0</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M11" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>44357</v>
+        <v>44363</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>0</v>
@@ -854,30 +836,30 @@
         <v>0</v>
       </c>
       <c r="L12" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5" t="n">
         <v>8</v>
-      </c>
-      <c r="M12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>44358</v>
+        <v>44364</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>0</v>
@@ -904,24 +886,24 @@
         <v>0</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>44359</v>
+        <v>44365</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>0</v>
@@ -939,34 +921,34 @@
         <v>0</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M14" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>44360</v>
+        <v>44366</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="D15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="F15" s="3" t="n">
         <v>0</v>
       </c>
@@ -980,39 +962,39 @@
         <v>0</v>
       </c>
       <c r="J15" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M15" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>44361</v>
+        <v>44367</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="4" t="n">
         <v>0</v>
@@ -1030,30 +1012,30 @@
         <v>0</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M16" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>44362</v>
+        <v>44368</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3" t="n">
         <v>0</v>
@@ -1065,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="4" t="n">
         <v>0</v>
@@ -1074,33 +1056,33 @@
         <v>0</v>
       </c>
       <c r="L17" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="M17" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="M17" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="N17" s="5" t="n">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>44363</v>
+        <v>44369</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18" s="4" t="n">
         <v>0</v>
@@ -1118,30 +1100,30 @@
         <v>0</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="M18" s="4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>44364</v>
+        <v>44370</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19" s="3" t="n">
         <v>0</v>
@@ -1162,30 +1144,30 @@
         <v>0</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="M19" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>18</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>44365</v>
+        <v>44371</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20" s="3" t="n">
         <v>0</v>
@@ -1206,18 +1188,18 @@
         <v>0</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="M20" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>22</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>44366</v>
+        <v>44372</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>13</v>
@@ -1226,10 +1208,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21" s="3" t="n">
         <v>0</v>
@@ -1238,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="3" t="n">
         <v>0</v>
@@ -1250,33 +1232,33 @@
         <v>0</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="M21" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>39</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>44367</v>
+        <v>44373</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="4" t="n">
         <v>0</v>
@@ -1294,42 +1276,42 @@
         <v>0</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M22" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>44368</v>
+        <v>44374</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F23" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G23" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="4" t="n">
         <v>0</v>
@@ -1338,18 +1320,18 @@
         <v>0</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="M23" s="4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>44369</v>
+        <v>44375</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>9</v>
@@ -1361,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G24" s="4" t="n">
         <v>0</v>
@@ -1382,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="M24" s="4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>63</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <v>44370</v>
+        <v>44376</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="D25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="5" t="n">
-        <v>3</v>
-      </c>
       <c r="F25" s="3" t="n">
         <v>0</v>
       </c>
@@ -1426,39 +1408,39 @@
         <v>0</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="M25" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>88</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
-        <v>44371</v>
+        <v>44377</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I26" s="3" t="n">
         <v>0</v>
@@ -1470,282 +1452,18 @@
         <v>0</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="M26" s="4" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
-        <v>44372</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E27" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="M27" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N27" s="5" t="n">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
-        <v>44373</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" s="3" t="n">
-        <v>43</v>
-      </c>
-      <c r="M28" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N28" s="5" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
-        <v>44374</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="n">
-        <v>68</v>
-      </c>
-      <c r="M29" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N29" s="5" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
-        <v>44375</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D30" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" s="3" t="n">
-        <v>123</v>
-      </c>
-      <c r="M30" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="N30" s="5" t="n">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
-        <v>44376</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D31" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" s="3" t="n">
-        <v>112</v>
-      </c>
-      <c r="M31" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="N31" s="5" t="n">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
-        <v>44377</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="n">
-        <v>129</v>
-      </c>
-      <c r="M32" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="N32" s="5" t="n">
         <v>162</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="8"/>
-      <c r="B185" s="9"/>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="8"/>
+      <c r="B179" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/data/Israel/june2021.xlsx
+++ b/data/Israel/june2021.xlsx
@@ -21,19 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
-  <si>
-    <t xml:space="preserve">new hospitalizations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new severe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deaths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cases</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -41,13 +29,40 @@
     <t xml:space="preserve">day</t>
   </si>
   <si>
-    <t xml:space="preserve">no vacc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vacc</t>
+    <t xml:space="preserve">hosp no vacc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hosp in process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hosp vacc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">severe no vacc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">severe in process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">severe vacc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deaths no vacc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deaths in process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deaths vacc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cases no vacc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cases in process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cases vacc</t>
   </si>
   <si>
     <t xml:space="preserve">Mon</t>
@@ -75,10 +90,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="167" formatCode="mm/dd/yy"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -103,7 +119,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,19 +129,37 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFA6A6"/>
-        <bgColor rgb="FFFF8080"/>
+        <bgColor rgb="FFEC9BA4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFDBB6"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFDEE6EF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFAFD095"/>
-        <bgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FFB4C7DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEC9BA4"/>
+        <bgColor rgb="FFFFA6A6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEE6EF"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -170,7 +204,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -195,19 +229,51 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -236,14 +302,14 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFAFD095"/>
+      <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFDEE6EF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFEC9BA4"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
@@ -258,7 +324,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FFFFA6A6"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFDBB6"/>
@@ -294,9 +360,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>217440</xdr:colOff>
+      <xdr:colOff>216720</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>85680</xdr:rowOff>
+      <xdr:rowOff>84960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -309,8 +375,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438280" y="1625400"/>
-          <a:ext cx="12409560" cy="6750720"/>
+          <a:off x="2445840" y="1625400"/>
+          <a:ext cx="12447000" cy="6750000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -330,108 +396,147 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N179"/>
+  <dimension ref="A1:Q178"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="6.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="5" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="5" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="5" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="5" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="5" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="5" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="6" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="7" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="8" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7" t="s">
+    <row r="1" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="12" t="str">
+        <f aca="false">"vent 60+"</f>
+        <v>vent 60+</v>
+      </c>
+      <c r="P1" s="13" t="str">
+        <f aca="false">"vent 40-60"</f>
+        <v>vent 40-60</v>
+      </c>
+      <c r="Q1" s="14" t="str">
+        <f aca="false">"vent &lt;40"</f>
+        <v>vent &lt;40</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
+      <c r="A2" s="1" t="n">
+        <v>44354</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
@@ -446,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="3" t="n">
         <v>0</v>
@@ -455,60 +560,87 @@
         <v>0</v>
       </c>
       <c r="K3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5" t="n">
-        <v>1</v>
+      <c r="M4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="F5" s="3" t="n">
         <v>0</v>
       </c>
@@ -528,30 +660,39 @@
         <v>0</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>0</v>
@@ -578,21 +719,30 @@
         <v>0</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>44358</v>
+        <v>44359</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0</v>
@@ -613,34 +763,43 @@
         <v>0</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>44359</v>
+        <v>44360</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="D8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" s="3" t="n">
         <v>0</v>
       </c>
@@ -654,33 +813,42 @@
         <v>0</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="M8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5" t="n">
-        <v>3</v>
+      <c r="O8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>44360</v>
+        <v>44361</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>2</v>
@@ -692,33 +860,42 @@
         <v>0</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>44361</v>
+        <v>44362</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>1</v>
@@ -727,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>0</v>
@@ -736,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="n">
         <v>0</v>
@@ -748,30 +925,39 @@
         <v>0</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M10" s="4" t="n">
         <v>1</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="O10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>0</v>
@@ -792,30 +978,39 @@
         <v>0</v>
       </c>
       <c r="L11" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="M11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="5" t="n">
-        <v>16</v>
+      <c r="O11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>44363</v>
+        <v>44364</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>0</v>
@@ -836,65 +1031,83 @@
         <v>0</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M12" s="4" t="n">
         <v>0</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="O12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>44364</v>
+        <v>44365</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="C13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3" t="n">
-        <v>8</v>
-      </c>
       <c r="M13" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>44365</v>
+        <v>44366</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>1</v>
@@ -903,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>0</v>
@@ -924,39 +1137,48 @@
         <v>0</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M14" s="4" t="n">
         <v>1</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>22</v>
+        <v>39</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>44366</v>
+        <v>44367</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="3" t="n">
         <v>0</v>
@@ -968,24 +1190,33 @@
         <v>0</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M15" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>39</v>
+        <v>25</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>44367</v>
+        <v>44368</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>0</v>
@@ -994,16 +1225,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="4" t="n">
         <v>0</v>
@@ -1012,33 +1243,42 @@
         <v>0</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="M16" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>25</v>
+        <v>77</v>
+      </c>
+      <c r="O16" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>44368</v>
+        <v>44369</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" s="4" t="n">
         <v>0</v>
@@ -1047,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="4" t="n">
         <v>0</v>
@@ -1062,65 +1302,83 @@
         <v>8</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>77</v>
+        <v>63</v>
+      </c>
+      <c r="O17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C18" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="M18" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F18" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3" t="n">
-        <v>41</v>
-      </c>
-      <c r="M18" s="4" t="n">
-        <v>8</v>
-      </c>
       <c r="N18" s="5" t="n">
-        <v>63</v>
+        <v>88</v>
+      </c>
+      <c r="O18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>3</v>
@@ -1144,30 +1402,39 @@
         <v>0</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="M19" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>88</v>
+        <v>121</v>
+      </c>
+      <c r="O19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D20" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="E20" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20" s="3" t="n">
         <v>0</v>
@@ -1176,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="3" t="n">
         <v>0</v>
@@ -1188,31 +1455,40 @@
         <v>0</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M20" s="4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>121</v>
+        <v>129</v>
+      </c>
+      <c r="O20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>44372</v>
+        <v>44373</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="E21" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="F21" s="3" t="n">
         <v>0</v>
       </c>
@@ -1232,80 +1508,98 @@
         <v>0</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="M21" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>129</v>
+        <v>67</v>
+      </c>
+      <c r="O21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>44373</v>
+        <v>44374</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="n">
+        <v>68</v>
+      </c>
+      <c r="M22" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="F22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="n">
-        <v>43</v>
-      </c>
-      <c r="M22" s="4" t="n">
-        <v>5</v>
-      </c>
       <c r="N22" s="5" t="n">
-        <v>67</v>
+        <v>75</v>
+      </c>
+      <c r="O22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>44374</v>
+        <v>44375</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G23" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>0</v>
@@ -1320,21 +1614,30 @@
         <v>0</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="M23" s="4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>75</v>
+        <v>153</v>
+      </c>
+      <c r="O23" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>44375</v>
+        <v>44376</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>4</v>
@@ -1343,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F24" s="3" t="n">
         <v>0</v>
@@ -1364,39 +1667,48 @@
         <v>0</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="M24" s="4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>153</v>
+        <v>170</v>
+      </c>
+      <c r="O24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="D25" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="5" t="n">
-        <v>5</v>
-      </c>
       <c r="F25" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I25" s="3" t="n">
         <v>0</v>
@@ -1408,21 +1720,30 @@
         <v>0</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="M25" s="4" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>170</v>
+        <v>162</v>
+      </c>
+      <c r="O25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
-        <v>44377</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>11</v>
+        <v>44378</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>1</v>
@@ -1431,16 +1752,16 @@
         <v>0</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I26" s="3" t="n">
         <v>0</v>
@@ -1449,29 +1770,32 @@
         <v>0</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>129</v>
-      </c>
-      <c r="M26" s="4" t="n">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="8"/>
-      <c r="B179" s="9"/>
+        <v>143</v>
+      </c>
+      <c r="O26" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="15"/>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="16"/>
+      <c r="B178" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1493,7 +1817,7 @@
       <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data/Israel/june2021.xlsx
+++ b/data/Israel/june2021.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -360,9 +360,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>216720</xdr:colOff>
+      <xdr:colOff>216360</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>84960</xdr:rowOff>
+      <xdr:rowOff>84600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -375,8 +375,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2445840" y="1625400"/>
-          <a:ext cx="12447000" cy="6750000"/>
+          <a:off x="2449800" y="1625400"/>
+          <a:ext cx="12465360" cy="6749640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -403,10 +403,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C27" activeCellId="0" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="L25" activeCellId="0" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="6.98"/>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4" t="n">
         <v>0</v>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="4" t="n">
         <v>0</v>
@@ -1534,13 +1534,13 @@
         <v>20</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22" s="3" t="n">
         <v>0</v>
@@ -1640,13 +1640,13 @@
         <v>15</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F24" s="3" t="n">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F25" s="3" t="n">
         <v>1</v>
@@ -1746,7 +1746,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" s="4" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3" t="n">
         <v>151</v>
@@ -1789,7 +1789,105 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="15"/>
+      <c r="A27" s="1" t="n">
+        <v>44379</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D27" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="N27" s="5" t="n">
+        <f aca="false">326-L27</f>
+        <v>146</v>
+      </c>
+      <c r="O27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>44380</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3" t="n">
+        <v>77</v>
+      </c>
+      <c r="N28" s="5" t="n">
+        <v>106</v>
+      </c>
+      <c r="O28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="16"/>
@@ -1817,7 +1915,7 @@
       <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
